--- a/inputs.xlsx
+++ b/inputs.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_E6B58D4F4E997DC547F4FEB8C1F0330EFBE4334E" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{806FB0E2-FFB1-422F-8F3C-C823BDF39304}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_E6B58D4F4E997DC547F4FEB8C1F0330EFBE4334E" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7DE0D6EC-9E44-49EC-80CA-10AF1E2100C8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="167">
   <si>
     <t>TINDER REG EMAIL</t>
   </si>
@@ -404,9 +404,6 @@
   </si>
   <si>
     <t>09/18/1994</t>
-  </si>
-  <si>
-    <t>17/29/1994</t>
   </si>
   <si>
     <t>03/04/1994</t>
@@ -917,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -965,7 +962,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>96</v>
@@ -1018,7 +1015,7 @@
         <v>115</v>
       </c>
       <c r="I3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1047,7 +1044,7 @@
         <v>116</v>
       </c>
       <c r="I4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1076,7 +1073,7 @@
         <v>117</v>
       </c>
       <c r="I5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1105,7 +1102,7 @@
         <v>118</v>
       </c>
       <c r="I6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1163,7 +1160,7 @@
         <v>120</v>
       </c>
       <c r="I8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1192,7 +1189,7 @@
         <v>121</v>
       </c>
       <c r="I9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1221,7 +1218,7 @@
         <v>122</v>
       </c>
       <c r="I10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1250,7 +1247,7 @@
         <v>123</v>
       </c>
       <c r="I11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1308,7 +1305,7 @@
         <v>125</v>
       </c>
       <c r="I13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1337,7 +1334,7 @@
         <v>126</v>
       </c>
       <c r="I14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1366,7 +1363,7 @@
         <v>127</v>
       </c>
       <c r="I15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1395,7 +1392,7 @@
         <v>128</v>
       </c>
       <c r="I16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1421,7 +1418,7 @@
         <v>112</v>
       </c>
       <c r="H17" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="I17" t="s">
         <v>114</v>
@@ -1450,10 +1447,10 @@
         <v>111</v>
       </c>
       <c r="H18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1479,10 +1476,10 @@
         <v>112</v>
       </c>
       <c r="H19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1508,10 +1505,10 @@
         <v>111</v>
       </c>
       <c r="H20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1537,10 +1534,10 @@
         <v>112</v>
       </c>
       <c r="H21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1595,10 +1592,10 @@
         <v>112</v>
       </c>
       <c r="H23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1624,10 +1621,10 @@
         <v>111</v>
       </c>
       <c r="H24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1653,10 +1650,10 @@
         <v>112</v>
       </c>
       <c r="H25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1682,10 +1679,10 @@
         <v>111</v>
       </c>
       <c r="H26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1711,7 +1708,7 @@
         <v>112</v>
       </c>
       <c r="H27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I27" t="s">
         <v>114</v>
@@ -1740,10 +1737,10 @@
         <v>111</v>
       </c>
       <c r="H28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1769,10 +1766,10 @@
         <v>112</v>
       </c>
       <c r="H29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1798,10 +1795,10 @@
         <v>111</v>
       </c>
       <c r="H30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I30" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1827,10 +1824,10 @@
         <v>112</v>
       </c>
       <c r="H31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1856,7 +1853,7 @@
         <v>111</v>
       </c>
       <c r="H32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I32" t="s">
         <v>114</v>
@@ -1885,10 +1882,10 @@
         <v>112</v>
       </c>
       <c r="H33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -1914,10 +1911,10 @@
         <v>111</v>
       </c>
       <c r="H34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -1943,10 +1940,10 @@
         <v>112</v>
       </c>
       <c r="H35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -1972,10 +1969,10 @@
         <v>111</v>
       </c>
       <c r="H36" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I36" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -2001,7 +1998,7 @@
         <v>112</v>
       </c>
       <c r="H37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I37" t="s">
         <v>114</v>
@@ -2030,10 +2027,10 @@
         <v>111</v>
       </c>
       <c r="H38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I38" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -2059,10 +2056,10 @@
         <v>112</v>
       </c>
       <c r="H39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -2088,10 +2085,10 @@
         <v>111</v>
       </c>
       <c r="H40" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -2117,10 +2114,10 @@
         <v>112</v>
       </c>
       <c r="H41" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I41" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -2146,7 +2143,7 @@
         <v>111</v>
       </c>
       <c r="H42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I42" t="s">
         <v>114</v>
@@ -2175,10 +2172,10 @@
         <v>112</v>
       </c>
       <c r="H43" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I43" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -2204,10 +2201,10 @@
         <v>111</v>
       </c>
       <c r="H44" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I44" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -2233,10 +2230,10 @@
         <v>112</v>
       </c>
       <c r="H45" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I45" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -2262,10 +2259,10 @@
         <v>111</v>
       </c>
       <c r="H46" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -2291,7 +2288,7 @@
         <v>112</v>
       </c>
       <c r="H47" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I47" t="s">
         <v>114</v>
@@ -2320,10 +2317,10 @@
         <v>111</v>
       </c>
       <c r="H48" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I48" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -2349,10 +2346,10 @@
         <v>112</v>
       </c>
       <c r="H49" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I49" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -2378,10 +2375,10 @@
         <v>111</v>
       </c>
       <c r="H50" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I50" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -2407,10 +2404,10 @@
         <v>112</v>
       </c>
       <c r="H51" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I51" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/inputs.xlsx
+++ b/inputs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_E6B58D4F4E997DC547F4FEB8C1F0330EFBE4334E" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7DE0D6EC-9E44-49EC-80CA-10AF1E2100C8}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_E6B58D4F4E997DC547F4FEB8C1F0330EFBE4334E" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AAEE0F1E-E47B-439F-B9BC-FBE32B6BBDD3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -193,36 +193,6 @@
     <t>30.0534°N 89.9345°W</t>
   </si>
   <si>
-    <t>koolkids@gmail.com</t>
-  </si>
-  <si>
-    <t>netnetnet77@gmail.com</t>
-  </si>
-  <si>
-    <t>yougotohm44@gmail.com</t>
-  </si>
-  <si>
-    <t>breeforme77@gmail.com</t>
-  </si>
-  <si>
-    <t>gogotoview8899@gmail.com</t>
-  </si>
-  <si>
-    <t>poptogofor288@gmail.com</t>
-  </si>
-  <si>
-    <t>guitarhero33@gmail.com</t>
-  </si>
-  <si>
-    <t>pokemonrules16@gmail.com</t>
-  </si>
-  <si>
-    <t>jojobaby888@gmail.com</t>
-  </si>
-  <si>
-    <t>iphoneisbest50@gmail.com</t>
-  </si>
-  <si>
     <t>timetogoto33@gmail.com</t>
   </si>
   <si>
@@ -307,9 +277,6 @@
     <t>smashfalco99@gmail.com</t>
   </si>
   <si>
-    <t>jokesaside44@gmail.com</t>
-  </si>
-  <si>
     <t>neyyorkbabe97@gmail.com</t>
   </si>
   <si>
@@ -518,6 +485,39 @@
   </si>
   <si>
     <t>40.6634°N 73.9387°W</t>
+  </si>
+  <si>
+    <t>j123okes123aside44@gmail.com</t>
+  </si>
+  <si>
+    <t>kool1241kids@gmail.com</t>
+  </si>
+  <si>
+    <t>net5435netnfet77@gmail.com</t>
+  </si>
+  <si>
+    <t>yosdfgugotasdohm44@gmail.com</t>
+  </si>
+  <si>
+    <t>braeedfgsforme77@gmail.com</t>
+  </si>
+  <si>
+    <t>gogotdgfsa2oview8899@gmail.com</t>
+  </si>
+  <si>
+    <t>poptao345sgofor288@gmail.com</t>
+  </si>
+  <si>
+    <t>guitarhdfgs3ero33@gmail.com</t>
+  </si>
+  <si>
+    <t>ke2345mon534rules16@gmail.com</t>
+  </si>
+  <si>
+    <t>dfgdfs45xa8@gmail.com</t>
+  </si>
+  <si>
+    <t>sdgbdd4tgd0@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -914,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -962,31 +962,31 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>96</v>
+        <v>156</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -994,28 +994,28 @@
         <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>157</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F3" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G3" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="H3" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="I3" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1023,28 +1023,28 @@
         <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>59</v>
+        <v>158</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F4" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G4" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="H4" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="I4" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1052,28 +1052,28 @@
         <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>60</v>
+        <v>159</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F5" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G5" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="H5" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="I5" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1081,28 +1081,28 @@
         <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F6" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G6" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="H6" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="I6" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1110,28 +1110,28 @@
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>62</v>
+        <v>161</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H7" t="s">
         <v>108</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H7" t="s">
-        <v>119</v>
-      </c>
       <c r="I7" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1139,28 +1139,28 @@
         <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>63</v>
+        <v>162</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8" t="s">
         <v>109</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F8" t="s">
-        <v>109</v>
-      </c>
-      <c r="G8" t="s">
-        <v>111</v>
-      </c>
-      <c r="H8" t="s">
-        <v>120</v>
-      </c>
       <c r="I8" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1168,28 +1168,28 @@
         <v>15</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>64</v>
+        <v>163</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H9" t="s">
         <v>110</v>
       </c>
-      <c r="F9" t="s">
-        <v>109</v>
-      </c>
-      <c r="G9" t="s">
-        <v>112</v>
-      </c>
-      <c r="H9" t="s">
-        <v>121</v>
-      </c>
       <c r="I9" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1197,28 +1197,28 @@
         <v>16</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>65</v>
+        <v>164</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F10" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G10" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10" t="s">
         <v>111</v>
       </c>
-      <c r="H10" t="s">
-        <v>122</v>
-      </c>
       <c r="I10" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1226,28 +1226,28 @@
         <v>17</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>66</v>
+        <v>165</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F11" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H11" t="s">
         <v>112</v>
       </c>
-      <c r="H11" t="s">
-        <v>123</v>
-      </c>
       <c r="I11" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1255,28 +1255,28 @@
         <v>18</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>67</v>
+        <v>166</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F12" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G12" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="H12" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="I12" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1284,28 +1284,28 @@
         <v>19</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F13" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G13" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="H13" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="I13" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1313,28 +1313,28 @@
         <v>20</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F14" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G14" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="H14" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="I14" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1342,28 +1342,28 @@
         <v>21</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F15" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G15" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="H15" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="I15" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1371,28 +1371,28 @@
         <v>22</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F16" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G16" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="H16" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="I16" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1400,28 +1400,28 @@
         <v>23</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F17" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G17" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="H17" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="I17" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1429,28 +1429,28 @@
         <v>24</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F18" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G18" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="H18" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="I18" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1458,28 +1458,28 @@
         <v>25</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F19" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G19" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="H19" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="I19" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1487,28 +1487,28 @@
         <v>26</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F20" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G20" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="H20" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="I20" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1516,28 +1516,28 @@
         <v>27</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F21" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G21" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="H21" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="I21" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1545,28 +1545,28 @@
         <v>28</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F22" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G22" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="H22" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="I22" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1574,28 +1574,28 @@
         <v>29</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F23" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G23" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="H23" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="I23" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1603,28 +1603,28 @@
         <v>30</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F24" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G24" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="H24" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="I24" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1632,28 +1632,28 @@
         <v>31</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F25" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G25" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="H25" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="I25" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1661,28 +1661,28 @@
         <v>32</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F26" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G26" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="H26" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="I26" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1690,28 +1690,28 @@
         <v>33</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F27" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G27" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="H27" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="I27" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1719,28 +1719,28 @@
         <v>34</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F28" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G28" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="H28" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="I28" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1748,28 +1748,28 @@
         <v>35</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F29" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G29" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="H29" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="I29" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1777,28 +1777,28 @@
         <v>36</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F30" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G30" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="H30" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="I30" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1806,28 +1806,28 @@
         <v>37</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F31" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G31" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="H31" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="I31" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1835,28 +1835,28 @@
         <v>38</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F32" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G32" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="H32" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="I32" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -1864,28 +1864,28 @@
         <v>39</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F33" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G33" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="H33" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="I33" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -1893,28 +1893,28 @@
         <v>40</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F34" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G34" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="H34" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="I34" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -1922,28 +1922,28 @@
         <v>41</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F35" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G35" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="H35" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="I35" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -1951,28 +1951,28 @@
         <v>42</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F36" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G36" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="H36" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="I36" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -1980,28 +1980,28 @@
         <v>43</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F37" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G37" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="H37" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="I37" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -2009,28 +2009,28 @@
         <v>44</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F38" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G38" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="H38" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="I38" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -2038,28 +2038,28 @@
         <v>45</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F39" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G39" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="H39" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="I39" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -2067,28 +2067,28 @@
         <v>46</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F40" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G40" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="H40" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="I40" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -2096,28 +2096,28 @@
         <v>47</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F41" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G41" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="H41" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="I41" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -2125,28 +2125,28 @@
         <v>48</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F42" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G42" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="H42" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="I42" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -2154,28 +2154,28 @@
         <v>49</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F43" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G43" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="H43" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="I43" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -2183,28 +2183,28 @@
         <v>50</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F44" t="s">
+        <v>98</v>
+      </c>
+      <c r="G44" t="s">
         <v>100</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F44" t="s">
-        <v>109</v>
-      </c>
-      <c r="G44" t="s">
-        <v>111</v>
-      </c>
       <c r="H44" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="I44" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -2212,28 +2212,28 @@
         <v>51</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G45" t="s">
         <v>101</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G45" t="s">
-        <v>112</v>
-      </c>
       <c r="H45" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="I45" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -2241,28 +2241,28 @@
         <v>52</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F46" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G46" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="H46" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="I46" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -2270,28 +2270,28 @@
         <v>53</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F47" t="s">
+        <v>98</v>
+      </c>
+      <c r="G47" t="s">
+        <v>101</v>
+      </c>
+      <c r="H47" t="s">
+        <v>146</v>
+      </c>
+      <c r="I47" t="s">
         <v>103</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F47" t="s">
-        <v>109</v>
-      </c>
-      <c r="G47" t="s">
-        <v>112</v>
-      </c>
-      <c r="H47" t="s">
-        <v>157</v>
-      </c>
-      <c r="I47" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -2299,28 +2299,28 @@
         <v>54</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F48" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G48" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="H48" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="I48" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -2328,28 +2328,28 @@
         <v>55</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F49" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G49" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="H49" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="I49" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -2357,28 +2357,28 @@
         <v>56</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F50" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G50" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="H50" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="I50" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -2386,28 +2386,28 @@
         <v>57</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F51" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G51" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="H51" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="I51" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/inputs.xlsx
+++ b/inputs.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_E6B58D4F4E997DC547F4FEB8C1F0330EFBE4334E" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AAEE0F1E-E47B-439F-B9BC-FBE32B6BBDD3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA79F3E-AE53-415E-9BB4-A855F7DEB30D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="136">
   <si>
     <t>TINDER REG EMAIL</t>
   </si>
@@ -46,36 +46,6 @@
     <t>COORDINATES</t>
   </si>
   <si>
-    <t>34.0194°N 118.4108°W</t>
-  </si>
-  <si>
-    <t>41.8376°N 87.6818°W</t>
-  </si>
-  <si>
-    <t>29.7866°N 95.3909°W</t>
-  </si>
-  <si>
-    <t>33.5722°N 112.0901°W</t>
-  </si>
-  <si>
-    <t>40.0094°N 75.1333°W</t>
-  </si>
-  <si>
-    <t>29.4724°N 98.5251°W</t>
-  </si>
-  <si>
-    <t>32.8153°N 117.1350°W</t>
-  </si>
-  <si>
-    <t>32.7933°N 96.7665°W</t>
-  </si>
-  <si>
-    <t>37.2967°N 121.8189°W</t>
-  </si>
-  <si>
-    <t>30.3039°N 97.7544°W</t>
-  </si>
-  <si>
     <t>30.3369°N 81.6616°W</t>
   </si>
   <si>
@@ -193,123 +163,6 @@
     <t>30.0534°N 89.9345°W</t>
   </si>
   <si>
-    <t>timetogoto33@gmail.com</t>
-  </si>
-  <si>
-    <t>lolforthetime8@gmail.com</t>
-  </si>
-  <si>
-    <t>greenday75@gmail.com</t>
-  </si>
-  <si>
-    <t>speakermufks@gmail.com</t>
-  </si>
-  <si>
-    <t>micmicmikes@gmail.com</t>
-  </si>
-  <si>
-    <t>controlgurl000@gmail.com</t>
-  </si>
-  <si>
-    <t>pillowtalk89@gmail.com</t>
-  </si>
-  <si>
-    <t>bellaextreme9@gmail.com</t>
-  </si>
-  <si>
-    <t>turntchadlawson@gmail.com</t>
-  </si>
-  <si>
-    <t>daylightcomes2@gmail.com</t>
-  </si>
-  <si>
-    <t>kamakaze44@gmail.com</t>
-  </si>
-  <si>
-    <t>wwwgunit1@gmail.com</t>
-  </si>
-  <si>
-    <t>togoplz876@gmail.com</t>
-  </si>
-  <si>
-    <t>lisamatson99@gmail.com</t>
-  </si>
-  <si>
-    <t>windowxpxpxp@gmail.com</t>
-  </si>
-  <si>
-    <t>fourteentime77@gmail.com</t>
-  </si>
-  <si>
-    <t>g2gformelol@gmail.com</t>
-  </si>
-  <si>
-    <t>sumsum4141@gmail.com</t>
-  </si>
-  <si>
-    <t>preseident89@gmail.com</t>
-  </si>
-  <si>
-    <t>heilgasman727@gmail.com</t>
-  </si>
-  <si>
-    <t>eiffeltowyay67@gmail.com</t>
-  </si>
-  <si>
-    <t>77diceroll@gmail.com</t>
-  </si>
-  <si>
-    <t>paypershow1@gmail.com</t>
-  </si>
-  <si>
-    <t>iamironmanna@gmail.com</t>
-  </si>
-  <si>
-    <t>dawnforbreak555@gmail.com</t>
-  </si>
-  <si>
-    <t>holymolycapt@gmail.com</t>
-  </si>
-  <si>
-    <t>mydadalawyer9@gmail.com</t>
-  </si>
-  <si>
-    <t>smashfalco99@gmail.com</t>
-  </si>
-  <si>
-    <t>neyyorkbabe97@gmail.com</t>
-  </si>
-  <si>
-    <t>pianomanelton@gmail.com</t>
-  </si>
-  <si>
-    <t>pocketchick88@gmail.com</t>
-  </si>
-  <si>
-    <t>goforbroke@gmail.com</t>
-  </si>
-  <si>
-    <t>kanyaisbals96@gmail.com</t>
-  </si>
-  <si>
-    <t>totoafricanana@gmail.com</t>
-  </si>
-  <si>
-    <t>ahahpoolcue@gmail.com</t>
-  </si>
-  <si>
-    <t>screenrants900@gmail.com</t>
-  </si>
-  <si>
-    <t>90problembtc@gmail.com</t>
-  </si>
-  <si>
-    <t>uhsonbringit@gmail.com</t>
-  </si>
-  <si>
-    <t>youevenlift89@gmail.com</t>
-  </si>
-  <si>
     <t>jeffdaniels13579@gmail.com</t>
   </si>
   <si>
@@ -331,36 +184,9 @@
     <t>Personality as perky as my tits. Snap me - briannaelly</t>
   </si>
   <si>
-    <t>10/19/1994</t>
-  </si>
-  <si>
-    <t>12/01/1994</t>
-  </si>
-  <si>
-    <t>09/26/1994</t>
-  </si>
-  <si>
-    <t>04/11/1994</t>
-  </si>
-  <si>
-    <t>03/03/1994</t>
-  </si>
-  <si>
-    <t>07/17/1994</t>
-  </si>
-  <si>
-    <t>02/11/1994</t>
-  </si>
-  <si>
-    <t>09/30/1994</t>
-  </si>
-  <si>
     <t>05/06/1994</t>
   </si>
   <si>
-    <t>01/14/1994</t>
-  </si>
-  <si>
     <t>10/28/1994</t>
   </si>
   <si>
@@ -484,40 +310,121 @@
     <t>Just a good girl looking for bad things. Snap me - briannaelly</t>
   </si>
   <si>
-    <t>40.6634°N 73.9387°W</t>
-  </si>
-  <si>
-    <t>j123okes123aside44@gmail.com</t>
-  </si>
-  <si>
-    <t>kool1241kids@gmail.com</t>
-  </si>
-  <si>
-    <t>net5435netnfet77@gmail.com</t>
-  </si>
-  <si>
-    <t>yosdfgugotasdohm44@gmail.com</t>
-  </si>
-  <si>
-    <t>braeedfgsforme77@gmail.com</t>
-  </si>
-  <si>
-    <t>gogotdgfsa2oview8899@gmail.com</t>
-  </si>
-  <si>
-    <t>poptao345sgofor288@gmail.com</t>
-  </si>
-  <si>
-    <t>guitarhdfgs3ero33@gmail.com</t>
-  </si>
-  <si>
-    <t>ke2345mon534rules16@gmail.com</t>
-  </si>
-  <si>
-    <t>dfgdfs45xa8@gmail.com</t>
-  </si>
-  <si>
-    <t>sdgbdd4tgd0@gmail.com</t>
+    <t>0VbvOhUx5LZfyAMgYIr9@gmail.com</t>
+  </si>
+  <si>
+    <t>RWo74j6O2CyBjmloC8Ot@gmail.com</t>
+  </si>
+  <si>
+    <t>AzwSERDshUFUPgYJCl3l@gmail.com</t>
+  </si>
+  <si>
+    <t>iJA3KE8bcjKXzoDGBOVu@gmail.com</t>
+  </si>
+  <si>
+    <t>QZeH6Wn7v3Z1Ixg35YVl@gmail.com</t>
+  </si>
+  <si>
+    <t>TD7aMSifdIncXi3IOajY@gmail.com</t>
+  </si>
+  <si>
+    <t>xyPbxDooSGnUHFPNNiXJ@gmail.com</t>
+  </si>
+  <si>
+    <t>a8lVzy71R2ttwDBNtstM@gmail.com</t>
+  </si>
+  <si>
+    <t>dQ4npAbpENMS75rZycD3@gmail.com</t>
+  </si>
+  <si>
+    <t>XBMNXgP6UsQuj01CCLI2@gmail.com</t>
+  </si>
+  <si>
+    <t>3jFemu0ioOMr2Nn678Rv@gmail.com</t>
+  </si>
+  <si>
+    <t>tVuv5EHW4ZBnmYb9yXYi@gmail.com</t>
+  </si>
+  <si>
+    <t>qNpzOmTnlwZCEAD3S2kP@gmail.com</t>
+  </si>
+  <si>
+    <t>a7UndLy8HCijc9TNde0n@gmail.com</t>
+  </si>
+  <si>
+    <t>FuYOSUgqw0oFy3G1gAFf@gmail.com</t>
+  </si>
+  <si>
+    <t>GhGpqNfiDBMhzDHTm4qP@gmail.com</t>
+  </si>
+  <si>
+    <t>dx90hImqrkDgCG1P8t4C@gmail.com</t>
+  </si>
+  <si>
+    <t>GXj2Pe2gmXGWJDKQ6qC9@gmail.com</t>
+  </si>
+  <si>
+    <t>Dc9hr1olbs1Oxjg40rhc@gmail.com</t>
+  </si>
+  <si>
+    <t>1yLuTE3mC6ZdT7BfFdh2@gmail.com</t>
+  </si>
+  <si>
+    <t>3m1gNZHSrqNA9iHOPCMk@gmail.com</t>
+  </si>
+  <si>
+    <t>66piV92r72Jkj5ngfn7f@gmail.com</t>
+  </si>
+  <si>
+    <t>zoSyZUXHH1L28KiU1tw4@gmail.com</t>
+  </si>
+  <si>
+    <t>nXTcn44fU4TIQWt8lsQY@gmail.com</t>
+  </si>
+  <si>
+    <t>sF0NpGsvvRF6LVnjA7w6@gmail.com</t>
+  </si>
+  <si>
+    <t>zElLu7qTtCc2B2SaTswd@gmail.com</t>
+  </si>
+  <si>
+    <t>txVHfqm5HtOLf79wNbHM@gmail.com</t>
+  </si>
+  <si>
+    <t>9lyVc7lrUgddRELg0S57@gmail.com</t>
+  </si>
+  <si>
+    <t>tkE203etyZz5nBfMxy0x@gmail.com</t>
+  </si>
+  <si>
+    <t>yAVQAy6F9Zl6mp16J81c@gmail.com</t>
+  </si>
+  <si>
+    <t>1IAqFuLAQaqPlwbNJYGT@gmail.com</t>
+  </si>
+  <si>
+    <t>GVVsoMu4slT1nYvZqqQ4@gmail.com</t>
+  </si>
+  <si>
+    <t>paTkqz07M03XY0ylPLPr@gmail.com</t>
+  </si>
+  <si>
+    <t>aJ8nW2VLivsUJsPihqHw@gmail.com</t>
+  </si>
+  <si>
+    <t>IeNSsiNl8yVDXESFyngt@gmail.com</t>
+  </si>
+  <si>
+    <t>KBOXMRUp8sSAWK6Ydapx@gmail.com</t>
+  </si>
+  <si>
+    <t>8OvdWAGvgltu9axE2Z0s@gmail.com</t>
+  </si>
+  <si>
+    <t>eckeJWeRREWPOvTyH6os@gmail.com</t>
+  </si>
+  <si>
+    <t>uBjqGSyfki4d19GSL3Ng@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -564,7 +471,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -573,10 +480,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Нормален" xfId="0" builtinId="0"/>
+    <cellStyle name="Хипервръзка" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -592,9 +502,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема на Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Оffice">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -632,7 +542,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Оffice">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -738,7 +648,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Оffice">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -912,10 +822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -962,1559 +872,1180 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>156</v>
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="G2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>103</v>
+        <v>52</v>
+      </c>
+      <c r="H2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>157</v>
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="G3" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="H3" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="I3" t="s">
-        <v>151</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>158</v>
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="F4" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="G4" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="H4" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="I4" t="s">
-        <v>152</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>159</v>
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="G5" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="H5" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="I5" t="s">
-        <v>153</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>160</v>
+        <v>13</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="F6" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="H6" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="I6" t="s">
-        <v>154</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>161</v>
+        <v>14</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="G7" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="H7" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="I7" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>162</v>
+        <v>15</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="G8" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="H8" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="I8" t="s">
-        <v>151</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>163</v>
+        <v>103</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="G9" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="H9" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="I9" t="s">
-        <v>152</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>164</v>
+        <v>104</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="G10" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="H10" t="s">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="I10" t="s">
-        <v>153</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>165</v>
+        <v>105</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="G11" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="H11" t="s">
-        <v>112</v>
+        <v>55</v>
       </c>
       <c r="I11" t="s">
-        <v>154</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>166</v>
+        <v>106</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="F12" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="G12" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="H12" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="I12" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="F13" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="G13" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="H13" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="I13" t="s">
-        <v>151</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="F14" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="G14" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="H14" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="I14" t="s">
-        <v>152</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="F15" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="G15" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="H15" t="s">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="I15" t="s">
-        <v>153</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="F16" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="G16" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="H16" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="I16" t="s">
-        <v>154</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="F17" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="G17" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="H17" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="I17" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="F18" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="G18" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="H18" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="I18" t="s">
-        <v>151</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="F19" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="G19" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="H19" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="I19" t="s">
-        <v>152</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="F20" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="G20" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="H20" t="s">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="I20" t="s">
-        <v>153</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="F21" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="G21" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="H21" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="I21" t="s">
-        <v>154</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="F22" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="G22" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="H22" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="I22" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="F23" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="G23" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="H23" t="s">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="I23" t="s">
-        <v>151</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="F24" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="G24" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="H24" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="I24" t="s">
-        <v>152</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="F25" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="G25" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="H25" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="I25" t="s">
-        <v>153</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="F26" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="G26" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="H26" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="I26" t="s">
-        <v>154</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="F27" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="G27" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="H27" t="s">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="I27" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="F28" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="G28" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="H28" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="I28" t="s">
-        <v>151</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="F29" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="G29" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="H29" t="s">
-        <v>128</v>
+        <v>81</v>
       </c>
       <c r="I29" t="s">
-        <v>152</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="F30" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="G30" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="H30" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="I30" t="s">
-        <v>153</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="F31" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="G31" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="H31" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="I31" t="s">
-        <v>154</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="F32" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="G32" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="H32" t="s">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="I32" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="F33" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="G33" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="H33" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="I33" t="s">
-        <v>151</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F34" t="s">
-        <v>98</v>
+        <v>50</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="G34" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="H34" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="I34" t="s">
-        <v>152</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="F35" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="G35" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="H35" t="s">
-        <v>134</v>
+        <v>87</v>
       </c>
       <c r="I35" t="s">
-        <v>153</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>81</v>
+        <v>130</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="F36" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="G36" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="H36" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="I36" t="s">
-        <v>154</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="F37" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="G37" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="H37" t="s">
-        <v>136</v>
+        <v>89</v>
       </c>
       <c r="I37" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="F38" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="G38" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="H38" t="s">
-        <v>137</v>
+        <v>90</v>
       </c>
       <c r="I38" t="s">
-        <v>151</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>84</v>
+        <v>133</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="F39" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="G39" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="H39" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="I39" t="s">
-        <v>152</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>85</v>
+        <v>134</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="F40" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="G40" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="H40" t="s">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="I40" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F41" t="s">
-        <v>98</v>
-      </c>
-      <c r="G41" t="s">
-        <v>101</v>
-      </c>
-      <c r="H41" t="s">
-        <v>140</v>
-      </c>
-      <c r="I41" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F42" t="s">
-        <v>98</v>
-      </c>
-      <c r="G42" t="s">
-        <v>100</v>
-      </c>
-      <c r="H42" t="s">
-        <v>141</v>
-      </c>
-      <c r="I42" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F43" t="s">
-        <v>98</v>
-      </c>
-      <c r="G43" t="s">
-        <v>101</v>
-      </c>
-      <c r="H43" t="s">
-        <v>142</v>
-      </c>
-      <c r="I43" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F44" t="s">
-        <v>98</v>
-      </c>
-      <c r="G44" t="s">
-        <v>100</v>
-      </c>
-      <c r="H44" t="s">
-        <v>143</v>
-      </c>
-      <c r="I44" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G45" t="s">
-        <v>101</v>
-      </c>
-      <c r="H45" t="s">
-        <v>144</v>
-      </c>
-      <c r="I45" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F46" t="s">
-        <v>98</v>
-      </c>
-      <c r="G46" t="s">
-        <v>100</v>
-      </c>
-      <c r="H46" t="s">
-        <v>145</v>
-      </c>
-      <c r="I46" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F47" t="s">
-        <v>98</v>
-      </c>
-      <c r="G47" t="s">
-        <v>101</v>
-      </c>
-      <c r="H47" t="s">
-        <v>146</v>
-      </c>
-      <c r="I47" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F48" t="s">
-        <v>98</v>
-      </c>
-      <c r="G48" t="s">
-        <v>100</v>
-      </c>
-      <c r="H48" t="s">
-        <v>147</v>
-      </c>
-      <c r="I48" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
-      </c>
-      <c r="G49" t="s">
-        <v>101</v>
-      </c>
-      <c r="H49" t="s">
-        <v>148</v>
-      </c>
-      <c r="I49" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>98</v>
-      </c>
-      <c r="G50" t="s">
-        <v>100</v>
-      </c>
-      <c r="H50" t="s">
-        <v>149</v>
-      </c>
-      <c r="I50" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B51" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F51" t="s">
-        <v>98</v>
-      </c>
-      <c r="G51" t="s">
-        <v>101</v>
-      </c>
-      <c r="H51" t="s">
-        <v>150</v>
-      </c>
-      <c r="I51" t="s">
-        <v>154</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=40.6635_N_73.9387_W_&amp;title=1+New+York+City" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=34.0194_N_118.4108_W_&amp;title=2+Los+Angeles" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A4" r:id="rId3" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=41.8376_N_87.6818_W_&amp;title=3+Chicago" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="A5" r:id="rId4" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=29.7866_N_95.3909_W_&amp;title=4+Houston" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="A6" r:id="rId5" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=33.5722_N_112.0901_W_&amp;title=6+Phoenix" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="A7" r:id="rId6" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=40.0094_N_75.1333_W_&amp;title=5+Philadelphia" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="A8" r:id="rId7" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=29.4724_N_98.5251_W_&amp;title=7+San+Antonio" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="A9" r:id="rId8" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=32.8153_N_117.1350_W_&amp;title=8+San+Diego" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="A10" r:id="rId9" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=32.7933_N_96.7665_W_&amp;title=9+Dallas" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="A11" r:id="rId10" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=37.2967_N_121.8189_W_&amp;title=10+San+Jose" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="A12" r:id="rId11" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=30.3039_N_97.7544_W_&amp;title=11+Austin" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="A13" r:id="rId12" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=30.3369_N_81.6616_W_&amp;title=12+Jacksonville" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="A14" r:id="rId13" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=32.7815_N_97.3467_W_&amp;title=16+Fort+Worth" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="A15" r:id="rId14" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=39.9852_N_82.9848_W_&amp;title=15+Columbus" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="A16" r:id="rId15" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=37.7272_N_123.0322_W_&amp;title=13+San+Francisco" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="A17" r:id="rId16" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=35.2078_N_80.8310_W_&amp;title=17+Charlotte" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="A18" r:id="rId17" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=39.7767_N_86.1459_W_&amp;title=14+Indianapolis" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="A19" r:id="rId18" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=47.6205_N_122.3509_W_&amp;title=20+Seattle" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="A20" r:id="rId19" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=39.7619_N_104.8811_W_&amp;title=Denver" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="A21" r:id="rId20" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=38.9041_N_77.0172_W_&amp;title=Washington%2C+D.C." xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="A22" r:id="rId21" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=42.3320_N_71.0202_W_&amp;title=Boston" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="A23" r:id="rId22" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=31.8484_N_106.4270_W_&amp;title=19+El+Paso" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="A24" r:id="rId23" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=42.3830_N_83.1022_W_&amp;title=18+Detroit" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="A25" r:id="rId24" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=36.1718_N_86.7850_W_&amp;title=Nashville" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="A26" r:id="rId25" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=45.5370_N_122.6500_W_&amp;title=Portland" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="A27" r:id="rId26" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=35.1028_N_89.9774_W_&amp;title=Memphis" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="A28" r:id="rId27" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=35.4671_N_97.5137_W_&amp;title=Oklahoma+City" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="A29" r:id="rId28" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=36.2292_N_115.2601_W_&amp;title=Las+Vegas" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="A30" r:id="rId29" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=38.1654_N_85.6474_W_&amp;title=Louisville" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="A31" r:id="rId30" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=39.3000_N_76.6105_W_&amp;title=Baltimore" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="A32" r:id="rId31" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=43.0633_N_87.9667_W_&amp;title=Milwaukee" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="A33" r:id="rId32" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=35.1056_N_106.6474_W_&amp;title=Albuquerque" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="A34" r:id="rId33" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=32.1531_N_110.8706_W_&amp;title=Tucson" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="A35" r:id="rId34" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=36.7836_N_119.7934_W_&amp;title=Fresno" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="A36" r:id="rId35" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=33.4019_N_111.7174_W_&amp;title=Mesa" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="A37" r:id="rId36" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=38.5666_N_121.4686_W_&amp;title=Sacramento" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="A38" r:id="rId37" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=33.7629_N_84.4227_W_&amp;title=Atlanta" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="A39" r:id="rId38" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=39.1251_N_94.5510_W_&amp;title=Kansas+City%2C+MO" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="A40" r:id="rId39" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=38.8673_N_104.7607_W_&amp;title=Colorado+Springs" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="A41" r:id="rId40" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=25.7752_N_80.2086_W_&amp;title=Miami" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="A42" r:id="rId41" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=35.8306_N_78.6418_W_&amp;title=Raleigh" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="A43" r:id="rId42" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=41.2644_N_96.0451_W_&amp;title=Omaha" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="A44" r:id="rId43" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=33.8092_N_118.1553_W_&amp;title=Long+Beach" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="A45" r:id="rId44" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=36.7800_N_76.0252_W_&amp;title=Virginia+Beach" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="A46" r:id="rId45" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=37.7698_N_122.2257_W_&amp;title=Oakland" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="A47" r:id="rId46" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=44.9633_N_93.2683_W_&amp;title=Minneapolis" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="A48" r:id="rId47" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=36.1279_N_95.9023_W_&amp;title=Tulsa" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="A49" r:id="rId48" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=32.7007_N_97.1247_W_&amp;title=Arlington" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="A50" r:id="rId49" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=27.9701_N_82.4797_W_&amp;title=Tampa" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="A51" r:id="rId50" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=30.0534_N_89.9345_W_&amp;title=New+Orleans" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="B2" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="B3" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="B4" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="B5" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="B6" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="B7" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="B8" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="B9" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="B10" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="B11" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="B12" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="B13" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="B14" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="B15" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="B16" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="B17" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="B18" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="B19" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="B20" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="B21" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="B22" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="B23" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="B24" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="B25" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="B26" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="B27" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="B28" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="B29" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="B30" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="B31" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="B32" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="B33" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="B34" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="B35" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="B36" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="B37" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="B38" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="B39" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="B40" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="B41" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="B42" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="B43" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="B44" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="B45" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="B46" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="B47" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="B48" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="B49" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="B50" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="B51" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=30.3369_N_81.6616_W_&amp;title=12+Jacksonville" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A3" r:id="rId2" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=32.7815_N_97.3467_W_&amp;title=16+Fort+Worth" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A4" r:id="rId3" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=39.9852_N_82.9848_W_&amp;title=15+Columbus" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A5" r:id="rId4" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=37.7272_N_123.0322_W_&amp;title=13+San+Francisco" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A6" r:id="rId5" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=35.2078_N_80.8310_W_&amp;title=17+Charlotte" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A7" r:id="rId6" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=39.7767_N_86.1459_W_&amp;title=14+Indianapolis" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A8" r:id="rId7" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=47.6205_N_122.3509_W_&amp;title=20+Seattle" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A9" r:id="rId8" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=39.7619_N_104.8811_W_&amp;title=Denver" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="A10" r:id="rId9" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=38.9041_N_77.0172_W_&amp;title=Washington%2C+D.C." xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="A11" r:id="rId10" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=42.3320_N_71.0202_W_&amp;title=Boston" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="A12" r:id="rId11" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=31.8484_N_106.4270_W_&amp;title=19+El+Paso" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="A13" r:id="rId12" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=42.3830_N_83.1022_W_&amp;title=18+Detroit" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="A14" r:id="rId13" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=36.1718_N_86.7850_W_&amp;title=Nashville" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="A15" r:id="rId14" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=45.5370_N_122.6500_W_&amp;title=Portland" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="A16" r:id="rId15" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=35.1028_N_89.9774_W_&amp;title=Memphis" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="A17" r:id="rId16" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=35.4671_N_97.5137_W_&amp;title=Oklahoma+City" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="A18" r:id="rId17" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=36.2292_N_115.2601_W_&amp;title=Las+Vegas" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="A19" r:id="rId18" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=38.1654_N_85.6474_W_&amp;title=Louisville" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="A20" r:id="rId19" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=39.3000_N_76.6105_W_&amp;title=Baltimore" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="A21" r:id="rId20" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=43.0633_N_87.9667_W_&amp;title=Milwaukee" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="A22" r:id="rId21" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=35.1056_N_106.6474_W_&amp;title=Albuquerque" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="A23" r:id="rId22" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=32.1531_N_110.8706_W_&amp;title=Tucson" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="A24" r:id="rId23" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=36.7836_N_119.7934_W_&amp;title=Fresno" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="A25" r:id="rId24" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=33.4019_N_111.7174_W_&amp;title=Mesa" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="A26" r:id="rId25" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=38.5666_N_121.4686_W_&amp;title=Sacramento" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="A27" r:id="rId26" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=33.7629_N_84.4227_W_&amp;title=Atlanta" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="A28" r:id="rId27" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=39.1251_N_94.5510_W_&amp;title=Kansas+City%2C+MO" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="A29" r:id="rId28" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=38.8673_N_104.7607_W_&amp;title=Colorado+Springs" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="A30" r:id="rId29" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=25.7752_N_80.2086_W_&amp;title=Miami" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="A31" r:id="rId30" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=35.8306_N_78.6418_W_&amp;title=Raleigh" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="A32" r:id="rId31" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=41.2644_N_96.0451_W_&amp;title=Omaha" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="A33" r:id="rId32" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=33.8092_N_118.1553_W_&amp;title=Long+Beach" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="A34" r:id="rId33" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=36.7800_N_76.0252_W_&amp;title=Virginia+Beach" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="A35" r:id="rId34" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=37.7698_N_122.2257_W_&amp;title=Oakland" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="A36" r:id="rId35" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=44.9633_N_93.2683_W_&amp;title=Minneapolis" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="A37" r:id="rId36" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=36.1279_N_95.9023_W_&amp;title=Tulsa" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="A38" r:id="rId37" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=32.7007_N_97.1247_W_&amp;title=Arlington" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="A39" r:id="rId38" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=27.9701_N_82.4797_W_&amp;title=Tampa" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="A40" r:id="rId39" display="https://tools.wmflabs.org/geohack/geohack.php?pagename=List_of_United_States_cities_by_population&amp;params=30.0534_N_89.9345_W_&amp;title=New+Orleans" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="B2" r:id="rId40" xr:uid="{4AC84163-BC51-4C15-92DB-02C398B454FC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId101"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId41"/>
 </worksheet>
 </file>
 

--- a/inputs.xlsx
+++ b/inputs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="32" documentId="114_{06B879B2-C6FF-4E78-BF33-98D421C462AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5BDD1B80-354C-4ABB-92E7-1607D1F42B2F}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="114_{06B879B2-C6FF-4E78-BF33-98D421C462AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C41F39A6-A47B-4DA7-8565-1FDE8655789C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -223,12 +223,6 @@
     <t>ZN1U0GxSPJi0HoIbJ2vB@gmail.com</t>
   </si>
   <si>
-    <t>8sijPQ8zpdzLTwn6FISC@gmail.com</t>
-  </si>
-  <si>
-    <t>FPE9McCMyQHaofBC3Axw@gmail.com</t>
-  </si>
-  <si>
     <t>QyDMGUAgUeLNZWwhEqfr@gmail.com</t>
   </si>
   <si>
@@ -263,6 +257,12 @@
   </si>
   <si>
     <t>cimr95056y9WP3UdyT3q@gmail.com</t>
+  </si>
+  <si>
+    <t>hvmZFopVIOqrgjTwNj2i@gmail.com</t>
+  </si>
+  <si>
+    <t>yRQ2nDIdvxZ4Fdaw8vgV@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -669,7 +669,7 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,7 +719,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>30</v>
@@ -748,7 +748,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>30</v>
@@ -777,7 +777,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>30</v>
@@ -806,7 +806,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>30</v>
@@ -835,7 +835,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>30</v>
@@ -864,7 +864,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>30</v>
@@ -893,7 +893,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>30</v>
@@ -1125,7 +1125,7 @@
         <v>23</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>30</v>
@@ -1154,7 +1154,7 @@
         <v>24</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>30</v>
@@ -1183,7 +1183,7 @@
         <v>25</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>30</v>
@@ -1212,7 +1212,7 @@
         <v>26</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>30</v>
@@ -1241,7 +1241,7 @@
         <v>27</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>30</v>
@@ -1270,7 +1270,7 @@
         <v>28</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>30</v>
@@ -1299,7 +1299,7 @@
         <v>29</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>30</v>
